--- a/rmnd_lca/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B34A98B-72FB-4F31-BA3A-9584F53A7D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62294317-64BC-40E4-8A53-9003972920A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03A063FC-F9BF-4857-9DAC-DAA9C33A5DE3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="53">
   <si>
     <t>Activity</t>
   </si>
@@ -113,202 +113,7 @@
     <t>production of nickle-based catalyst for methanation</t>
   </si>
   <si>
-    <t>market for steel, chromium steel 18/8</t>
-  </si>
-  <si>
     <t>GLO</t>
-  </si>
-  <si>
-    <t>ecoinvent</t>
-  </si>
-  <si>
-    <t>steel, chromium steel 18/8</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, in air</t>
-  </si>
-  <si>
-    <t>natural resource::in air</t>
-  </si>
-  <si>
-    <t>biosphere</t>
-  </si>
-  <si>
-    <t>biosphere3</t>
-  </si>
-  <si>
-    <t>Power to Gas::3.1 CO2 Capture::Atmosphere</t>
-  </si>
-  <si>
-    <t>carbon dioxide capture system</t>
-  </si>
-  <si>
-    <t>market for chemical, organic</t>
-  </si>
-  <si>
-    <t>chemical, organic</t>
-  </si>
-  <si>
-    <t>market group for electricity, low voltage</t>
-  </si>
-  <si>
-    <t>kilowatt hour</t>
-  </si>
-  <si>
-    <t>Electricity/heat</t>
-  </si>
-  <si>
-    <t>electricity, low voltage</t>
-  </si>
-  <si>
-    <t>adsorption and desorption unit, carbon dioxide capture process</t>
-  </si>
-  <si>
-    <t>control panel, carbon dioxide capture process</t>
-  </si>
-  <si>
-    <t>cooling unit, carbon dioxide capture process</t>
-  </si>
-  <si>
-    <t>heat exchanger, carbon dioxide capture process</t>
-  </si>
-  <si>
-    <t>hot water tank, carbon dioxide capture process</t>
-  </si>
-  <si>
-    <t>pumps, carbon dioxide capture process</t>
-  </si>
-  <si>
-    <t>wiring and tubing, carbon dioxide capture process</t>
-  </si>
-  <si>
-    <t>aluminium production, primary, ingot</t>
-  </si>
-  <si>
-    <t>IAI Area, EU27 &amp; EFTA</t>
-  </si>
-  <si>
-    <t>aluminium, primary, ingot</t>
-  </si>
-  <si>
-    <t>polyvinylchloride production, bulk polymerisation</t>
-  </si>
-  <si>
-    <t>polyvinylchloride, bulk polymerised</t>
-  </si>
-  <si>
-    <t>steel production, electric, low-alloyed</t>
-  </si>
-  <si>
-    <t>steel, low-alloyed</t>
-  </si>
-  <si>
-    <t>synthetic rubber production</t>
-  </si>
-  <si>
-    <t>synthetic rubber</t>
-  </si>
-  <si>
-    <t>transport, freight, lorry 16-32 metric ton, EURO5</t>
-  </si>
-  <si>
-    <t>ton kilometer</t>
-  </si>
-  <si>
-    <t>computer production, desktop, without screen</t>
-  </si>
-  <si>
-    <t>computer, desktop, without screen</t>
-  </si>
-  <si>
-    <t>electronics production, for control units</t>
-  </si>
-  <si>
-    <t>electronics, for control units</t>
-  </si>
-  <si>
-    <t>market for display, liquid crystal, 17 inches</t>
-  </si>
-  <si>
-    <t>display, liquid crystal, 17 inches</t>
-  </si>
-  <si>
-    <t>operation, computer, desktop, with liquid crystal display, active mode</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>router, internet</t>
-  </si>
-  <si>
-    <t>ethylene glycol production</t>
-  </si>
-  <si>
-    <t>ethylene glycol</t>
-  </si>
-  <si>
-    <t>market for tap water</t>
-  </si>
-  <si>
-    <t>tap water</t>
-  </si>
-  <si>
-    <t>reinforcing steel production</t>
-  </si>
-  <si>
-    <t>reinforcing steel</t>
-  </si>
-  <si>
-    <t>transport, freight train, diesel, with particle filter</t>
-  </si>
-  <si>
-    <t>transport, freight train</t>
-  </si>
-  <si>
-    <t>gas motor production, 206kW</t>
-  </si>
-  <si>
-    <t>gas motor, 206kW</t>
-  </si>
-  <si>
-    <t>pump production, 40W</t>
-  </si>
-  <si>
-    <t>pump, 40W</t>
-  </si>
-  <si>
-    <t>steel production, converter, low-alloyed</t>
-  </si>
-  <si>
-    <t>copper production, blister-copper</t>
-  </si>
-  <si>
-    <t>copper, blister-copper</t>
-  </si>
-  <si>
-    <t>market for aluminium alloy, AlMg3</t>
-  </si>
-  <si>
-    <t>aluminium alloy, AlMg3</t>
-  </si>
-  <si>
-    <t>market for nickel, 99.5%</t>
-  </si>
-  <si>
-    <t>nickel, 99.5%</t>
-  </si>
-  <si>
-    <t>Europe without Switzerland</t>
   </si>
   <si>
     <t>syngas</t>
@@ -769,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C0019C-B49E-4DC4-A2B0-0D79853335D0}">
-  <dimension ref="A1:S356"/>
+  <dimension ref="A1:S352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,7 +593,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -799,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -815,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -839,7 +644,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -847,15 +652,15 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -903,13 +708,13 @@
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -921,10 +726,10 @@
         <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -956,7 +761,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>21</v>
@@ -993,7 +798,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
         <v>24</v>
@@ -1003,13 +808,13 @@
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0.50779661016949151</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1024,10 +829,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="S16" s="3"/>
@@ -1061,7 +866,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
         <v>25</v>
@@ -1074,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1090,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -1114,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1122,15 +927,15 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -1178,13 +983,13 @@
     </row>
     <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -1196,10 +1001,10 @@
         <v>20</v>
       </c>
       <c r="J29" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -1231,7 +1036,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>21</v>
@@ -1268,7 +1073,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J31" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
         <v>24</v>
@@ -1278,13 +1083,13 @@
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>0.50779661016949151</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
@@ -1299,10 +1104,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="S32" s="3"/>
@@ -1336,7 +1141,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J33" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K33" t="s">
         <v>25</v>
@@ -1349,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
@@ -1365,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
@@ -1389,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
@@ -1397,15 +1202,15 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -1453,13 +1258,13 @@
     </row>
     <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -1471,10 +1276,10 @@
         <v>20</v>
       </c>
       <c r="J45" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -1506,7 +1311,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J46" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>21</v>
@@ -1543,7 +1348,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J47" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K47" t="s">
         <v>24</v>
@@ -1553,13 +1358,13 @@
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>0.50779661016949151</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -1574,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="S48" s="3"/>
@@ -1611,7 +1416,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J49" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K49" t="s">
         <v>25</v>
@@ -1624,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
@@ -1640,7 +1445,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
@@ -1664,7 +1469,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
@@ -1672,15 +1477,15 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -1728,13 +1533,13 @@
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -1746,10 +1551,10 @@
         <v>20</v>
       </c>
       <c r="J61" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -1781,7 +1586,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J62" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>21</v>
@@ -1818,7 +1623,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J63" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K63" t="s">
         <v>24</v>
@@ -1828,13 +1633,13 @@
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B64">
         <v>0.50779661016949151</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -1849,10 +1654,10 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="Q64" s="3"/>
       <c r="S64" s="3"/>
@@ -1886,7 +1691,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J65" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K65" t="s">
         <v>25</v>
@@ -1899,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
@@ -1915,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
@@ -1939,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
@@ -1947,15 +1752,15 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2003,13 +1808,13 @@
     </row>
     <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D77" t="s">
         <v>6</v>
@@ -2021,10 +1826,10 @@
         <v>20</v>
       </c>
       <c r="J77" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2056,7 +1861,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J78" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>21</v>
@@ -2093,7 +1898,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J79" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K79" t="s">
         <v>24</v>
@@ -2103,13 +1908,13 @@
     </row>
     <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B80">
         <v>0.50779661016949151</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
@@ -2124,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="Q80" s="3"/>
       <c r="S80" s="3"/>
@@ -2161,7 +1966,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J81" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K81" t="s">
         <v>25</v>
@@ -2174,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
@@ -2190,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
@@ -2214,7 +2019,7 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
@@ -2222,15 +2027,15 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2278,13 +2083,13 @@
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D93" t="s">
         <v>6</v>
@@ -2296,10 +2101,10 @@
         <v>20</v>
       </c>
       <c r="J93" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2331,7 +2136,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J94" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>21</v>
@@ -2368,7 +2173,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J95" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K95" t="s">
         <v>24</v>
@@ -2378,13 +2183,13 @@
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B96">
         <v>0.50779661016949151</v>
       </c>
       <c r="C96" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D96" t="s">
         <v>6</v>
@@ -2399,10 +2204,10 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="Q96" s="3"/>
       <c r="S96" s="3"/>
@@ -2436,7 +2241,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J97" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K97" t="s">
         <v>25</v>
@@ -2449,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
@@ -2465,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
@@ -2489,7 +2294,7 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
@@ -2497,15 +2302,15 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2553,13 +2358,13 @@
     </row>
     <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="D109" t="s">
         <v>6</v>
@@ -2571,10 +2376,10 @@
         <v>20</v>
       </c>
       <c r="J109" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2606,7 +2411,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J110" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>21</v>
@@ -2643,7 +2448,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J111" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K111" t="s">
         <v>24</v>
@@ -2653,13 +2458,13 @@
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B112">
         <v>0.50779661016949151</v>
       </c>
       <c r="C112" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="D112" t="s">
         <v>6</v>
@@ -2674,10 +2479,10 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="Q112" s="3"/>
       <c r="S112" s="3"/>
@@ -2711,7 +2516,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J113" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K113" t="s">
         <v>25</v>
@@ -2724,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
@@ -2740,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
@@ -2764,7 +2569,7 @@
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
@@ -2772,15 +2577,15 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2828,13 +2633,13 @@
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D125" t="s">
         <v>6</v>
@@ -2846,10 +2651,10 @@
         <v>20</v>
       </c>
       <c r="J125" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2881,7 +2686,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J126" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>21</v>
@@ -2918,7 +2723,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J127" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K127" t="s">
         <v>24</v>
@@ -2928,13 +2733,13 @@
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B128">
         <v>0.50779661016949151</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D128" t="s">
         <v>6</v>
@@ -2949,10 +2754,10 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="Q128" s="3"/>
       <c r="S128" s="3"/>
@@ -2986,7 +2791,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J129" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K129" t="s">
         <v>25</v>
@@ -2999,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.35">
@@ -3015,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.35">
@@ -3039,7 +2844,7 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.35">
@@ -3047,15 +2852,15 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B138" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3103,13 +2908,13 @@
     </row>
     <row r="141" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D141" t="s">
         <v>6</v>
@@ -3121,10 +2926,10 @@
         <v>20</v>
       </c>
       <c r="J141" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3156,7 +2961,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J142" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>21</v>
@@ -3193,7 +2998,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J143" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K143" t="s">
         <v>24</v>
@@ -3203,13 +3008,13 @@
     </row>
     <row r="144" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B144">
         <v>0.50779661016949151</v>
       </c>
       <c r="C144" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D144" t="s">
         <v>6</v>
@@ -3224,10 +3029,10 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="Q144" s="3"/>
       <c r="S144" s="3"/>
@@ -3261,7 +3066,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J145" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K145" t="s">
         <v>25</v>
@@ -3274,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.35">
@@ -3290,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.35">
@@ -3314,7 +3119,7 @@
         <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.35">
@@ -3322,15 +3127,15 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B154" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="155" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3378,13 +3183,13 @@
     </row>
     <row r="157" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D157" t="s">
         <v>6</v>
@@ -3396,10 +3201,10 @@
         <v>20</v>
       </c>
       <c r="J157" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3431,7 +3236,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J158" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>21</v>
@@ -3468,7 +3273,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J159" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K159" t="s">
         <v>24</v>
@@ -3478,13 +3283,13 @@
     </row>
     <row r="160" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B160">
         <v>0.50779661016949151</v>
       </c>
       <c r="C160" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D160" t="s">
         <v>6</v>
@@ -3499,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="Q160" s="3"/>
       <c r="S160" s="3"/>
@@ -3536,7 +3341,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J161" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K161" t="s">
         <v>25</v>
@@ -3549,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.35">
@@ -3565,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.35">
@@ -3589,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.35">
@@ -3597,15 +3402,15 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B170" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="171" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3653,13 +3458,13 @@
     </row>
     <row r="173" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="D173" t="s">
         <v>6</v>
@@ -3671,10 +3476,10 @@
         <v>20</v>
       </c>
       <c r="J173" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3706,7 +3511,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J174" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>21</v>
@@ -3743,7 +3548,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J175" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K175" t="s">
         <v>24</v>
@@ -3753,13 +3558,13 @@
     </row>
     <row r="176" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B176">
         <v>0.50779661016949151</v>
       </c>
       <c r="C176" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="D176" t="s">
         <v>6</v>
@@ -3774,10 +3579,10 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="Q176" s="3"/>
       <c r="S176" s="3"/>
@@ -3811,7 +3616,7 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J177" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K177" t="s">
         <v>25</v>
@@ -3824,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.35">
@@ -3840,7 +3645,7 @@
         <v>2</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.35">
@@ -3877,10 +3682,10 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B186" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3928,7 +3733,7 @@
     </row>
     <row r="189" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -3946,10 +3751,10 @@
         <v>20</v>
       </c>
       <c r="J189" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="190" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3981,7 +3786,7 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J190" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K190" s="2" t="s">
         <v>21</v>
@@ -4018,7 +3823,7 @@
         <v>0.20605482541341649</v>
       </c>
       <c r="J191" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K191" t="s">
         <v>24</v>
@@ -4028,7 +3833,7 @@
     </row>
     <row r="192" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B192">
         <v>0.50779661016949151</v>
@@ -4049,10 +3854,10 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="Q192" s="3"/>
       <c r="S192" s="3"/>
@@ -4086,2795 +3891,157 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J193" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="Q193" s="3"/>
       <c r="S193" s="3"/>
     </row>
     <row r="195" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>1</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
     </row>
     <row r="197" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>2</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>3</v>
-      </c>
-      <c r="B198" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>7</v>
-      </c>
-      <c r="B200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>103</v>
-      </c>
-      <c r="B201" t="s">
-        <v>104</v>
-      </c>
+      <c r="B197" s="2"/>
     </row>
     <row r="202" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A202" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>12</v>
-      </c>
-      <c r="B203" t="s">
-        <v>13</v>
-      </c>
-      <c r="C203" t="s">
-        <v>7</v>
-      </c>
-      <c r="D203" t="s">
-        <v>5</v>
-      </c>
-      <c r="E203" t="s">
-        <v>14</v>
-      </c>
-      <c r="F203" t="s">
-        <v>3</v>
-      </c>
-      <c r="G203" t="s">
-        <v>15</v>
-      </c>
-      <c r="H203" t="s">
-        <v>16</v>
-      </c>
-      <c r="I203" t="s">
-        <v>17</v>
-      </c>
-      <c r="J203" t="s">
-        <v>18</v>
-      </c>
-      <c r="K203" t="s">
-        <v>2</v>
-      </c>
+      <c r="A202" s="1"/>
     </row>
     <row r="204" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A204" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-      <c r="C204" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204" t="s">
-        <v>5</v>
-      </c>
-      <c r="E204" t="s">
-        <v>19</v>
-      </c>
-      <c r="F204" t="s">
-        <v>20</v>
-      </c>
-      <c r="J204" t="s">
-        <v>92</v>
-      </c>
-      <c r="K204" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>26</v>
-      </c>
-      <c r="B205">
-        <v>300</v>
-      </c>
-      <c r="C205" t="s">
-        <v>27</v>
-      </c>
-      <c r="D205" t="s">
-        <v>6</v>
-      </c>
-      <c r="E205" t="s">
-        <v>22</v>
-      </c>
-      <c r="F205" t="s">
-        <v>23</v>
-      </c>
-      <c r="G205">
-        <v>2</v>
-      </c>
-      <c r="H205">
-        <v>5.7037824746562009</v>
-      </c>
-      <c r="I205">
-        <v>0.46212945076166601</v>
-      </c>
-      <c r="J205" t="s">
-        <v>28</v>
-      </c>
-      <c r="K205" t="s">
-        <v>29</v>
-      </c>
+      <c r="A204" s="2"/>
+      <c r="K204" s="2"/>
     </row>
     <row r="207" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A207" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>1</v>
-      </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
     </row>
     <row r="209" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>2</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>3</v>
-      </c>
-      <c r="B210" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B211" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>7</v>
-      </c>
-      <c r="B212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>103</v>
-      </c>
-      <c r="B213" t="s">
-        <v>104</v>
-      </c>
+      <c r="B209" s="2"/>
     </row>
     <row r="214" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A214" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>12</v>
-      </c>
-      <c r="B215" t="s">
-        <v>13</v>
-      </c>
-      <c r="C215" t="s">
-        <v>7</v>
-      </c>
-      <c r="D215" t="s">
-        <v>5</v>
-      </c>
-      <c r="E215" t="s">
-        <v>14</v>
-      </c>
-      <c r="F215" t="s">
-        <v>3</v>
-      </c>
-      <c r="G215" t="s">
-        <v>15</v>
-      </c>
-      <c r="H215" t="s">
-        <v>16</v>
-      </c>
-      <c r="I215" t="s">
-        <v>17</v>
-      </c>
-      <c r="J215" t="s">
-        <v>30</v>
-      </c>
-      <c r="K215" t="s">
-        <v>31</v>
-      </c>
-      <c r="L215" t="s">
-        <v>18</v>
-      </c>
-      <c r="M215" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>32</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="D216" t="s">
-        <v>6</v>
-      </c>
-      <c r="E216" t="s">
-        <v>33</v>
-      </c>
-      <c r="F216" t="s">
-        <v>34</v>
-      </c>
-      <c r="G216">
-        <v>0</v>
-      </c>
-      <c r="H216">
-        <v>1</v>
-      </c>
-      <c r="L216" t="s">
-        <v>35</v>
-      </c>
+      <c r="A214" s="1"/>
     </row>
     <row r="217" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A217" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-      <c r="C217" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" t="s">
-        <v>6</v>
-      </c>
-      <c r="E217" t="s">
-        <v>36</v>
-      </c>
-      <c r="F217" t="s">
-        <v>20</v>
-      </c>
-      <c r="L217" t="s">
-        <v>92</v>
-      </c>
-      <c r="M217" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>37</v>
-      </c>
-      <c r="B218">
-        <v>1</v>
-      </c>
-      <c r="C218" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" t="s">
-        <v>5</v>
-      </c>
-      <c r="E218" t="s">
-        <v>22</v>
-      </c>
-      <c r="F218" t="s">
-        <v>23</v>
-      </c>
-      <c r="G218">
-        <v>2</v>
-      </c>
-      <c r="H218">
-        <v>0</v>
-      </c>
-      <c r="I218">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="L218" t="s">
-        <v>92</v>
-      </c>
-      <c r="M218" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>38</v>
-      </c>
-      <c r="B219">
-        <v>3.5596899999999999E-3</v>
-      </c>
-      <c r="C219" t="s">
-        <v>27</v>
-      </c>
-      <c r="D219" t="s">
-        <v>6</v>
-      </c>
-      <c r="E219" t="s">
-        <v>22</v>
-      </c>
-      <c r="F219" t="s">
-        <v>23</v>
-      </c>
-      <c r="G219">
-        <v>2</v>
-      </c>
-      <c r="H219">
-        <v>-5.6380818165614492</v>
-      </c>
-      <c r="I219">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="L219" t="s">
-        <v>28</v>
-      </c>
-      <c r="M219" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>40</v>
-      </c>
-      <c r="B220">
-        <v>0.37</v>
-      </c>
-      <c r="C220" t="s">
-        <v>91</v>
-      </c>
-      <c r="D220" t="s">
-        <v>41</v>
-      </c>
-      <c r="E220" t="s">
-        <v>42</v>
-      </c>
-      <c r="F220" t="s">
-        <v>23</v>
-      </c>
-      <c r="G220">
-        <v>2</v>
-      </c>
-      <c r="H220">
-        <v>-0.9942522733438669</v>
-      </c>
-      <c r="I220">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="L220" t="s">
-        <v>28</v>
-      </c>
-      <c r="M220" t="s">
-        <v>43</v>
-      </c>
+      <c r="A217" s="2"/>
+      <c r="M217" s="2"/>
     </row>
     <row r="222" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A222" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>1</v>
-      </c>
-      <c r="B223">
-        <v>1</v>
-      </c>
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
     </row>
     <row r="224" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>2</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>3</v>
-      </c>
-      <c r="B225" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>5</v>
-      </c>
-      <c r="B226" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>7</v>
-      </c>
-      <c r="B227" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>103</v>
-      </c>
-      <c r="B228" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A229" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>12</v>
-      </c>
-      <c r="B230" t="s">
-        <v>13</v>
-      </c>
-      <c r="C230" t="s">
-        <v>5</v>
-      </c>
-      <c r="D230" t="s">
-        <v>7</v>
-      </c>
-      <c r="E230" t="s">
-        <v>14</v>
-      </c>
-      <c r="F230" t="s">
-        <v>3</v>
-      </c>
-      <c r="G230" t="s">
-        <v>15</v>
-      </c>
-      <c r="H230" t="s">
-        <v>16</v>
-      </c>
-      <c r="I230" t="s">
-        <v>17</v>
-      </c>
-      <c r="J230" t="s">
-        <v>2</v>
-      </c>
-      <c r="K230" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>5</v>
-      </c>
-      <c r="D231" t="s">
-        <v>8</v>
-      </c>
-      <c r="E231" t="s">
-        <v>36</v>
-      </c>
-      <c r="F231" t="s">
-        <v>20</v>
-      </c>
-      <c r="J231" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K231" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A232" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B232">
-        <v>1.09529E-7</v>
-      </c>
-      <c r="C232" t="s">
-        <v>5</v>
-      </c>
-      <c r="D232" t="s">
-        <v>8</v>
-      </c>
-      <c r="E232" t="s">
-        <v>22</v>
-      </c>
-      <c r="F232" t="s">
-        <v>23</v>
-      </c>
-      <c r="G232">
-        <v>2</v>
-      </c>
-      <c r="H232">
-        <v>-16.027076482571179</v>
-      </c>
-      <c r="I232">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K232" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A233" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B233">
-        <v>1.09529E-7</v>
-      </c>
-      <c r="C233" t="s">
-        <v>5</v>
-      </c>
-      <c r="D233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E233" t="s">
-        <v>22</v>
-      </c>
-      <c r="F233" t="s">
-        <v>23</v>
-      </c>
-      <c r="G233">
-        <v>2</v>
-      </c>
-      <c r="H233">
-        <v>-16.027076482571179</v>
-      </c>
-      <c r="I233">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K233" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A234" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B234">
-        <v>1.09529E-7</v>
-      </c>
-      <c r="C234" t="s">
-        <v>5</v>
-      </c>
-      <c r="D234" t="s">
-        <v>8</v>
-      </c>
-      <c r="E234" t="s">
-        <v>22</v>
-      </c>
-      <c r="F234" t="s">
-        <v>23</v>
-      </c>
-      <c r="G234">
-        <v>2</v>
-      </c>
-      <c r="H234">
-        <v>-16.027076482571179</v>
-      </c>
-      <c r="I234">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K234" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A235" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B235">
-        <v>1.09529E-7</v>
-      </c>
-      <c r="C235" t="s">
-        <v>5</v>
-      </c>
-      <c r="D235" t="s">
-        <v>8</v>
-      </c>
-      <c r="E235" t="s">
-        <v>22</v>
-      </c>
-      <c r="F235" t="s">
-        <v>23</v>
-      </c>
-      <c r="G235">
-        <v>2</v>
-      </c>
-      <c r="H235">
-        <v>-16.027076482571179</v>
-      </c>
-      <c r="I235">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K235" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>48</v>
-      </c>
-      <c r="B236">
-        <v>1.09529E-7</v>
-      </c>
-      <c r="C236" t="s">
-        <v>5</v>
-      </c>
-      <c r="D236" t="s">
-        <v>8</v>
-      </c>
-      <c r="E236" t="s">
-        <v>22</v>
-      </c>
-      <c r="F236" t="s">
-        <v>23</v>
-      </c>
-      <c r="G236">
-        <v>2</v>
-      </c>
-      <c r="H236">
-        <v>-16.027076482571179</v>
-      </c>
-      <c r="I236">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K236" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>49</v>
-      </c>
-      <c r="B237">
-        <v>1.09529E-7</v>
-      </c>
-      <c r="C237" t="s">
-        <v>5</v>
-      </c>
-      <c r="D237" t="s">
-        <v>8</v>
-      </c>
-      <c r="E237" t="s">
-        <v>22</v>
-      </c>
-      <c r="F237" t="s">
-        <v>23</v>
-      </c>
-      <c r="G237">
-        <v>2</v>
-      </c>
-      <c r="H237">
-        <v>-16.027076482571179</v>
-      </c>
-      <c r="I237">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K237" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A238" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B238">
-        <v>1.09529E-7</v>
-      </c>
-      <c r="C238" t="s">
-        <v>5</v>
-      </c>
-      <c r="D238" t="s">
-        <v>8</v>
-      </c>
-      <c r="E238" t="s">
-        <v>22</v>
-      </c>
-      <c r="F238" t="s">
-        <v>23</v>
-      </c>
-      <c r="G238">
-        <v>2</v>
-      </c>
-      <c r="H238">
-        <v>-16.027076482571179</v>
-      </c>
-      <c r="I238">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K238" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A240" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>1</v>
-      </c>
-      <c r="B241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
-        <v>2</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>3</v>
-      </c>
-      <c r="B243" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>5</v>
-      </c>
-      <c r="B244" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>7</v>
-      </c>
-      <c r="B245" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>103</v>
-      </c>
-      <c r="B246" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A247" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>12</v>
-      </c>
-      <c r="B248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C248" t="s">
-        <v>7</v>
-      </c>
-      <c r="D248" t="s">
-        <v>5</v>
-      </c>
-      <c r="E248" t="s">
-        <v>14</v>
-      </c>
-      <c r="F248" t="s">
-        <v>3</v>
-      </c>
-      <c r="G248" t="s">
-        <v>15</v>
-      </c>
-      <c r="H248" t="s">
-        <v>16</v>
-      </c>
-      <c r="I248" t="s">
-        <v>17</v>
-      </c>
-      <c r="J248" t="s">
-        <v>2</v>
-      </c>
-      <c r="K248" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A249" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B249">
-        <v>1</v>
-      </c>
-      <c r="C249" t="s">
-        <v>8</v>
-      </c>
-      <c r="D249" t="s">
-        <v>5</v>
-      </c>
-      <c r="E249" t="s">
-        <v>36</v>
-      </c>
-      <c r="F249" t="s">
-        <v>20</v>
-      </c>
-      <c r="J249" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K249" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>51</v>
-      </c>
-      <c r="B250">
-        <v>13000</v>
-      </c>
-      <c r="C250" t="s">
-        <v>52</v>
-      </c>
-      <c r="D250" t="s">
-        <v>6</v>
-      </c>
-      <c r="E250" t="s">
-        <v>42</v>
-      </c>
-      <c r="F250" t="s">
-        <v>23</v>
-      </c>
-      <c r="G250">
-        <v>2</v>
-      </c>
-      <c r="H250">
-        <v>9.4727046364436731</v>
-      </c>
-      <c r="I250">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J250" t="s">
-        <v>53</v>
-      </c>
-      <c r="K250" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>54</v>
-      </c>
-      <c r="B251">
-        <v>500</v>
-      </c>
-      <c r="C251" t="s">
-        <v>8</v>
-      </c>
-      <c r="D251" t="s">
-        <v>6</v>
-      </c>
-      <c r="E251" t="s">
-        <v>42</v>
-      </c>
-      <c r="F251" t="s">
-        <v>23</v>
-      </c>
-      <c r="G251">
-        <v>2</v>
-      </c>
-      <c r="H251">
-        <v>6.2146080984221914</v>
-      </c>
-      <c r="I251">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J251" t="s">
-        <v>55</v>
-      </c>
-      <c r="K251" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
-        <v>56</v>
-      </c>
-      <c r="B252">
-        <v>500</v>
-      </c>
-      <c r="C252" t="s">
-        <v>8</v>
-      </c>
-      <c r="D252" t="s">
-        <v>6</v>
-      </c>
-      <c r="E252" t="s">
-        <v>42</v>
-      </c>
-      <c r="F252" t="s">
-        <v>23</v>
-      </c>
-      <c r="G252">
-        <v>2</v>
-      </c>
-      <c r="H252">
-        <v>6.2146080984221914</v>
-      </c>
-      <c r="I252">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J252" t="s">
-        <v>57</v>
-      </c>
-      <c r="K252" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>58</v>
-      </c>
-      <c r="B253">
-        <v>120</v>
-      </c>
-      <c r="C253" t="s">
-        <v>8</v>
-      </c>
-      <c r="D253" t="s">
-        <v>6</v>
-      </c>
-      <c r="E253" t="s">
-        <v>42</v>
-      </c>
-      <c r="F253" t="s">
-        <v>23</v>
-      </c>
-      <c r="G253">
-        <v>2</v>
-      </c>
-      <c r="H253">
-        <v>4.7874917427820458</v>
-      </c>
-      <c r="I253">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J253" t="s">
-        <v>59</v>
-      </c>
-      <c r="K253" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
-        <v>60</v>
-      </c>
-      <c r="B254">
-        <v>15000</v>
-      </c>
-      <c r="C254" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" t="s">
-        <v>61</v>
-      </c>
-      <c r="E254" t="s">
-        <v>42</v>
-      </c>
-      <c r="F254" t="s">
-        <v>23</v>
-      </c>
-      <c r="G254">
-        <v>2</v>
-      </c>
-      <c r="H254">
-        <v>9.6158054800843473</v>
-      </c>
-      <c r="I254">
-        <v>0.2126338677021721</v>
-      </c>
-      <c r="J254" t="s">
-        <v>60</v>
-      </c>
-      <c r="K254" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A256" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>1</v>
-      </c>
-      <c r="B257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>2</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>3</v>
-      </c>
-      <c r="B259" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>5</v>
-      </c>
-      <c r="B260" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
-        <v>7</v>
-      </c>
-      <c r="B261" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
-        <v>103</v>
-      </c>
-      <c r="B262" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A263" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>12</v>
-      </c>
-      <c r="B264" t="s">
-        <v>13</v>
-      </c>
-      <c r="C264" t="s">
-        <v>7</v>
-      </c>
-      <c r="D264" t="s">
-        <v>5</v>
-      </c>
-      <c r="E264" t="s">
-        <v>14</v>
-      </c>
-      <c r="F264" t="s">
-        <v>3</v>
-      </c>
-      <c r="G264" t="s">
-        <v>15</v>
-      </c>
-      <c r="H264" t="s">
-        <v>16</v>
-      </c>
-      <c r="I264" t="s">
-        <v>17</v>
-      </c>
-      <c r="J264" t="s">
-        <v>2</v>
-      </c>
-      <c r="K264" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A265" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
-      <c r="C265" t="s">
-        <v>8</v>
-      </c>
-      <c r="D265" t="s">
-        <v>5</v>
-      </c>
-      <c r="E265" t="s">
-        <v>36</v>
-      </c>
-      <c r="F265" t="s">
-        <v>20</v>
-      </c>
-      <c r="J265" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K265" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
-        <v>62</v>
-      </c>
-      <c r="B266">
-        <v>1</v>
-      </c>
-      <c r="C266" t="s">
-        <v>27</v>
-      </c>
-      <c r="D266" t="s">
-        <v>5</v>
-      </c>
-      <c r="E266" t="s">
-        <v>22</v>
-      </c>
-      <c r="F266" t="s">
-        <v>23</v>
-      </c>
-      <c r="G266">
-        <v>2</v>
-      </c>
-      <c r="H266">
-        <v>0</v>
-      </c>
-      <c r="I266">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J266" t="s">
-        <v>63</v>
-      </c>
-      <c r="K266" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>64</v>
-      </c>
-      <c r="B267">
-        <v>50</v>
-      </c>
-      <c r="C267" t="s">
-        <v>8</v>
-      </c>
-      <c r="D267" t="s">
-        <v>6</v>
-      </c>
-      <c r="E267" t="s">
-        <v>22</v>
-      </c>
-      <c r="F267" t="s">
-        <v>23</v>
-      </c>
-      <c r="G267">
-        <v>2</v>
-      </c>
-      <c r="H267">
-        <v>3.912023005428146</v>
-      </c>
-      <c r="I267">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J267" t="s">
-        <v>65</v>
-      </c>
-      <c r="K267" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
-        <v>66</v>
-      </c>
-      <c r="B268">
-        <v>2</v>
-      </c>
-      <c r="C268" t="s">
-        <v>27</v>
-      </c>
-      <c r="D268" t="s">
-        <v>5</v>
-      </c>
-      <c r="E268" t="s">
-        <v>22</v>
-      </c>
-      <c r="F268" t="s">
-        <v>23</v>
-      </c>
-      <c r="G268">
-        <v>2</v>
-      </c>
-      <c r="H268">
-        <v>0.69314718055994529</v>
-      </c>
-      <c r="I268">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J268" t="s">
-        <v>67</v>
-      </c>
-      <c r="K268" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
-        <v>68</v>
-      </c>
-      <c r="B269">
-        <v>80000</v>
-      </c>
-      <c r="C269" t="s">
-        <v>69</v>
-      </c>
-      <c r="D269" t="s">
-        <v>70</v>
-      </c>
-      <c r="E269" t="s">
-        <v>22</v>
-      </c>
-      <c r="F269" t="s">
-        <v>23</v>
-      </c>
-      <c r="G269">
-        <v>2</v>
-      </c>
-      <c r="H269">
-        <v>11.28978191365602</v>
-      </c>
-      <c r="I269">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J269" t="s">
-        <v>68</v>
-      </c>
-      <c r="K269" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
-        <v>71</v>
-      </c>
-      <c r="B270">
-        <v>1</v>
-      </c>
-      <c r="C270" t="s">
-        <v>69</v>
-      </c>
-      <c r="D270" t="s">
-        <v>5</v>
-      </c>
-      <c r="E270" t="s">
-        <v>22</v>
-      </c>
-      <c r="F270" t="s">
-        <v>23</v>
-      </c>
-      <c r="G270">
-        <v>2</v>
-      </c>
-      <c r="H270">
-        <v>0</v>
-      </c>
-      <c r="I270">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J270" t="s">
-        <v>71</v>
-      </c>
-      <c r="K270" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A272" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>1</v>
-      </c>
-      <c r="B273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
-        <v>2</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
-        <v>3</v>
-      </c>
-      <c r="B275" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
-        <v>5</v>
-      </c>
-      <c r="B276" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
-        <v>7</v>
-      </c>
-      <c r="B277" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
-        <v>103</v>
-      </c>
-      <c r="B278" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A279" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
-        <v>12</v>
-      </c>
-      <c r="B280" t="s">
-        <v>13</v>
-      </c>
-      <c r="C280" t="s">
-        <v>7</v>
-      </c>
-      <c r="D280" t="s">
-        <v>5</v>
-      </c>
-      <c r="E280" t="s">
-        <v>14</v>
-      </c>
-      <c r="F280" t="s">
-        <v>3</v>
-      </c>
-      <c r="G280" t="s">
-        <v>15</v>
-      </c>
-      <c r="H280" t="s">
-        <v>16</v>
-      </c>
-      <c r="I280" t="s">
-        <v>17</v>
-      </c>
-      <c r="J280" t="s">
-        <v>2</v>
-      </c>
-      <c r="K280" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A281" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B281">
-        <v>1</v>
-      </c>
-      <c r="C281" t="s">
-        <v>8</v>
-      </c>
-      <c r="D281" t="s">
-        <v>5</v>
-      </c>
-      <c r="E281" t="s">
-        <v>36</v>
-      </c>
-      <c r="F281" t="s">
-        <v>20</v>
-      </c>
-      <c r="J281" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K281" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>54</v>
-      </c>
-      <c r="B282">
-        <v>854</v>
-      </c>
-      <c r="C282" t="s">
-        <v>8</v>
-      </c>
-      <c r="D282" t="s">
-        <v>6</v>
-      </c>
-      <c r="E282" t="s">
-        <v>22</v>
-      </c>
-      <c r="F282" t="s">
-        <v>23</v>
-      </c>
-      <c r="G282">
-        <v>2</v>
-      </c>
-      <c r="H282">
-        <v>6.7499311937885702</v>
-      </c>
-      <c r="I282">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J282" t="s">
-        <v>55</v>
-      </c>
-      <c r="K282" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
-        <v>56</v>
-      </c>
-      <c r="B283">
-        <v>454</v>
-      </c>
-      <c r="C283" t="s">
-        <v>8</v>
-      </c>
-      <c r="D283" t="s">
-        <v>6</v>
-      </c>
-      <c r="E283" t="s">
-        <v>22</v>
-      </c>
-      <c r="F283" t="s">
-        <v>23</v>
-      </c>
-      <c r="G283">
-        <v>2</v>
-      </c>
-      <c r="H283">
-        <v>6.1180971980413483</v>
-      </c>
-      <c r="I283">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J283" t="s">
-        <v>57</v>
-      </c>
-      <c r="K283" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A285" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>1</v>
-      </c>
-      <c r="B286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>2</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>3</v>
-      </c>
-      <c r="B288" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>5</v>
-      </c>
-      <c r="B289" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
-        <v>7</v>
-      </c>
-      <c r="B290" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>103</v>
-      </c>
-      <c r="B291" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A292" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>12</v>
-      </c>
-      <c r="B293" t="s">
-        <v>13</v>
-      </c>
-      <c r="C293" t="s">
-        <v>7</v>
-      </c>
-      <c r="D293" t="s">
-        <v>5</v>
-      </c>
-      <c r="E293" t="s">
-        <v>14</v>
-      </c>
-      <c r="F293" t="s">
-        <v>3</v>
-      </c>
-      <c r="G293" t="s">
-        <v>15</v>
-      </c>
-      <c r="H293" t="s">
-        <v>16</v>
-      </c>
-      <c r="I293" t="s">
-        <v>17</v>
-      </c>
-      <c r="J293" t="s">
-        <v>2</v>
-      </c>
-      <c r="K293" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A294" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B294">
-        <v>1</v>
-      </c>
-      <c r="C294" t="s">
-        <v>8</v>
-      </c>
-      <c r="D294" t="s">
-        <v>5</v>
-      </c>
-      <c r="E294" t="s">
-        <v>36</v>
-      </c>
-      <c r="F294" t="s">
-        <v>20</v>
-      </c>
-      <c r="K294" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>72</v>
-      </c>
-      <c r="B295">
-        <v>9000</v>
-      </c>
-      <c r="C295" t="s">
-        <v>8</v>
-      </c>
-      <c r="D295" t="s">
-        <v>6</v>
-      </c>
-      <c r="E295" t="s">
-        <v>22</v>
-      </c>
-      <c r="F295" t="s">
-        <v>23</v>
-      </c>
-      <c r="G295">
-        <v>2</v>
-      </c>
-      <c r="H295">
-        <v>9000</v>
-      </c>
-      <c r="I295">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J295" t="s">
-        <v>73</v>
-      </c>
-      <c r="K295" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>74</v>
-      </c>
-      <c r="B296">
-        <v>3.54</v>
-      </c>
-      <c r="C296" t="s">
-        <v>69</v>
-      </c>
-      <c r="D296" t="s">
-        <v>6</v>
-      </c>
-      <c r="E296" t="s">
-        <v>22</v>
-      </c>
-      <c r="F296" t="s">
-        <v>23</v>
-      </c>
-      <c r="G296">
-        <v>2</v>
-      </c>
-      <c r="H296">
-        <v>1.2641267271456831</v>
-      </c>
-      <c r="I296">
-        <v>5.6664342653501683E-2</v>
-      </c>
-      <c r="J296" t="s">
-        <v>75</v>
-      </c>
-      <c r="K296" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>76</v>
-      </c>
-      <c r="B297">
-        <v>1180</v>
-      </c>
-      <c r="C297" t="s">
-        <v>8</v>
-      </c>
-      <c r="D297" t="s">
-        <v>6</v>
-      </c>
-      <c r="E297" t="s">
-        <v>22</v>
-      </c>
-      <c r="F297" t="s">
-        <v>23</v>
-      </c>
-      <c r="G297">
-        <v>2</v>
-      </c>
-      <c r="H297">
-        <v>7.0732697174597101</v>
-      </c>
-      <c r="I297">
-        <v>5.6664342653501683E-2</v>
-      </c>
-      <c r="J297" t="s">
-        <v>77</v>
-      </c>
-      <c r="K297" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>56</v>
-      </c>
-      <c r="B298">
-        <v>1180</v>
-      </c>
-      <c r="C298" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" t="s">
-        <v>6</v>
-      </c>
-      <c r="E298" t="s">
-        <v>22</v>
-      </c>
-      <c r="F298" t="s">
-        <v>23</v>
-      </c>
-      <c r="G298">
-        <v>2</v>
-      </c>
-      <c r="H298">
-        <v>7.0732697174597101</v>
-      </c>
-      <c r="I298">
-        <v>5.6664342653501683E-2</v>
-      </c>
-      <c r="J298" t="s">
-        <v>57</v>
-      </c>
-      <c r="K298" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>78</v>
-      </c>
-      <c r="B299">
-        <v>1418</v>
-      </c>
-      <c r="C299" t="s">
-        <v>69</v>
-      </c>
-      <c r="D299" t="s">
-        <v>61</v>
-      </c>
-      <c r="E299" t="s">
-        <v>22</v>
-      </c>
-      <c r="F299" t="s">
-        <v>23</v>
-      </c>
-      <c r="G299">
-        <v>2</v>
-      </c>
-      <c r="H299">
-        <v>7.2570027070920728</v>
-      </c>
-      <c r="I299">
-        <v>5.6664342653501683E-2</v>
-      </c>
-      <c r="J299" t="s">
-        <v>79</v>
-      </c>
-      <c r="K299" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>60</v>
-      </c>
-      <c r="B300">
-        <v>1000</v>
-      </c>
-      <c r="C300" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" t="s">
-        <v>61</v>
-      </c>
-      <c r="E300" t="s">
-        <v>22</v>
-      </c>
-      <c r="F300" t="s">
-        <v>23</v>
-      </c>
-      <c r="G300">
-        <v>2</v>
-      </c>
-      <c r="H300">
-        <v>6.9077552789821368</v>
-      </c>
-      <c r="I300">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J300" t="s">
-        <v>60</v>
-      </c>
-      <c r="K300" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>60</v>
-      </c>
-      <c r="B301">
-        <v>118</v>
-      </c>
-      <c r="C301" t="s">
-        <v>8</v>
-      </c>
-      <c r="D301" t="s">
-        <v>61</v>
-      </c>
-      <c r="E301" t="s">
-        <v>22</v>
-      </c>
-      <c r="F301" t="s">
-        <v>23</v>
-      </c>
-      <c r="G301">
-        <v>2</v>
-      </c>
-      <c r="H301">
-        <v>4.7706846244656651</v>
-      </c>
-      <c r="I301">
-        <v>5.6664342653501683E-2</v>
-      </c>
-      <c r="J301" t="s">
-        <v>60</v>
-      </c>
-      <c r="K301" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A303" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>1</v>
-      </c>
-      <c r="B304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>2</v>
-      </c>
-      <c r="B305" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
-        <v>3</v>
-      </c>
-      <c r="B306" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>5</v>
-      </c>
-      <c r="B307" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A308" t="s">
-        <v>7</v>
-      </c>
-      <c r="B308" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
-        <v>103</v>
-      </c>
-      <c r="B309" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A310" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>12</v>
-      </c>
-      <c r="B311" t="s">
-        <v>13</v>
-      </c>
-      <c r="C311" t="s">
-        <v>7</v>
-      </c>
-      <c r="D311" t="s">
-        <v>5</v>
-      </c>
-      <c r="E311" t="s">
-        <v>14</v>
-      </c>
-      <c r="F311" t="s">
-        <v>3</v>
-      </c>
-      <c r="G311" t="s">
-        <v>15</v>
-      </c>
-      <c r="H311" t="s">
-        <v>16</v>
-      </c>
-      <c r="I311" t="s">
-        <v>17</v>
-      </c>
-      <c r="J311" t="s">
-        <v>2</v>
-      </c>
-      <c r="K311" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
-        <v>48</v>
-      </c>
-      <c r="B312">
-        <v>1</v>
-      </c>
-      <c r="C312" t="s">
-        <v>8</v>
-      </c>
-      <c r="D312" t="s">
-        <v>5</v>
-      </c>
-      <c r="E312" t="s">
-        <v>36</v>
-      </c>
-      <c r="F312" t="s">
-        <v>20</v>
-      </c>
-      <c r="J312" t="s">
-        <v>48</v>
-      </c>
-      <c r="K312" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>56</v>
-      </c>
-      <c r="B313">
-        <v>2000</v>
-      </c>
-      <c r="C313" t="s">
-        <v>8</v>
-      </c>
-      <c r="D313" t="s">
-        <v>6</v>
-      </c>
-      <c r="E313" t="s">
-        <v>22</v>
-      </c>
-      <c r="F313" t="s">
-        <v>23</v>
-      </c>
-      <c r="G313">
-        <v>2</v>
-      </c>
-      <c r="H313">
-        <v>2000</v>
-      </c>
-      <c r="I313">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J313" t="s">
-        <v>57</v>
-      </c>
-      <c r="K313" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>60</v>
-      </c>
-      <c r="B314">
-        <v>2000</v>
-      </c>
-      <c r="C314" t="s">
-        <v>8</v>
-      </c>
-      <c r="D314" t="s">
-        <v>61</v>
-      </c>
-      <c r="E314" t="s">
-        <v>22</v>
-      </c>
-      <c r="F314" t="s">
-        <v>23</v>
-      </c>
-      <c r="G314">
-        <v>2</v>
-      </c>
-      <c r="H314">
-        <v>7.6009024595420822</v>
-      </c>
-      <c r="I314">
-        <v>0.3465735902799727</v>
-      </c>
-      <c r="J314" t="s">
-        <v>60</v>
-      </c>
-      <c r="K314" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A316" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A317" t="s">
-        <v>1</v>
-      </c>
-      <c r="B317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
-        <v>2</v>
-      </c>
-      <c r="B318" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A319" t="s">
-        <v>3</v>
-      </c>
-      <c r="B319" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A320" t="s">
-        <v>5</v>
-      </c>
-      <c r="B320" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>7</v>
-      </c>
-      <c r="B321" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A322" t="s">
-        <v>103</v>
-      </c>
-      <c r="B322" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A323" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A324" t="s">
-        <v>12</v>
-      </c>
-      <c r="B324" t="s">
-        <v>13</v>
-      </c>
-      <c r="C324" t="s">
-        <v>7</v>
-      </c>
-      <c r="D324" t="s">
-        <v>5</v>
-      </c>
-      <c r="E324" t="s">
-        <v>14</v>
-      </c>
-      <c r="F324" t="s">
-        <v>3</v>
-      </c>
-      <c r="G324" t="s">
-        <v>15</v>
-      </c>
-      <c r="H324" t="s">
-        <v>16</v>
-      </c>
-      <c r="I324" t="s">
-        <v>17</v>
-      </c>
-      <c r="J324" t="s">
-        <v>2</v>
-      </c>
-      <c r="K324" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A325" t="s">
-        <v>49</v>
-      </c>
-      <c r="B325">
-        <v>1</v>
-      </c>
-      <c r="C325" t="s">
-        <v>8</v>
-      </c>
-      <c r="D325" t="s">
-        <v>5</v>
-      </c>
-      <c r="E325" t="s">
-        <v>36</v>
-      </c>
-      <c r="F325" t="s">
-        <v>20</v>
-      </c>
-      <c r="J325" t="s">
-        <v>49</v>
-      </c>
-      <c r="K325" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A326" t="s">
-        <v>80</v>
-      </c>
-      <c r="B326">
-        <v>0.17</v>
-      </c>
-      <c r="C326" t="s">
-        <v>8</v>
-      </c>
-      <c r="D326" t="s">
-        <v>5</v>
-      </c>
-      <c r="E326" t="s">
-        <v>22</v>
-      </c>
-      <c r="F326" t="s">
-        <v>23</v>
-      </c>
-      <c r="G326">
-        <v>2</v>
-      </c>
-      <c r="H326">
-        <v>-1.771956841931875</v>
-      </c>
-      <c r="I326">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="J326" t="s">
-        <v>81</v>
-      </c>
-      <c r="K326" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A327" t="s">
-        <v>82</v>
-      </c>
-      <c r="B327">
-        <v>125</v>
-      </c>
-      <c r="C327" t="s">
-        <v>69</v>
-      </c>
-      <c r="D327" t="s">
-        <v>5</v>
-      </c>
-      <c r="E327" t="s">
-        <v>22</v>
-      </c>
-      <c r="F327" t="s">
-        <v>23</v>
-      </c>
-      <c r="G327">
-        <v>2</v>
-      </c>
-      <c r="H327">
-        <v>4.8283137373023024</v>
-      </c>
-      <c r="I327">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="J327" t="s">
-        <v>83</v>
-      </c>
-      <c r="K327" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A328" t="s">
-        <v>84</v>
-      </c>
-      <c r="B328">
-        <v>818</v>
-      </c>
-      <c r="C328" t="s">
-        <v>8</v>
-      </c>
-      <c r="D328" t="s">
-        <v>6</v>
-      </c>
-      <c r="E328" t="s">
-        <v>22</v>
-      </c>
-      <c r="F328" t="s">
-        <v>23</v>
-      </c>
-      <c r="G328">
-        <v>2</v>
-      </c>
-      <c r="H328">
-        <v>6.7068623366027467</v>
-      </c>
-      <c r="I328">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J328" t="s">
-        <v>57</v>
-      </c>
-      <c r="K328" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A330" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A331" t="s">
-        <v>1</v>
-      </c>
-      <c r="B331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A332" t="s">
-        <v>2</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A333" t="s">
-        <v>3</v>
-      </c>
-      <c r="B333" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A334" t="s">
-        <v>5</v>
-      </c>
-      <c r="B334" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A335" t="s">
-        <v>7</v>
-      </c>
-      <c r="B335" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A336" t="s">
-        <v>103</v>
-      </c>
-      <c r="B336" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A337" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A338" t="s">
-        <v>12</v>
-      </c>
-      <c r="B338" t="s">
-        <v>13</v>
-      </c>
-      <c r="C338" t="s">
-        <v>7</v>
-      </c>
-      <c r="D338" t="s">
-        <v>5</v>
-      </c>
-      <c r="E338" t="s">
-        <v>14</v>
-      </c>
-      <c r="F338" t="s">
-        <v>3</v>
-      </c>
-      <c r="G338" t="s">
-        <v>15</v>
-      </c>
-      <c r="H338" t="s">
-        <v>16</v>
-      </c>
-      <c r="I338" t="s">
-        <v>17</v>
-      </c>
-      <c r="J338" t="s">
-        <v>2</v>
-      </c>
-      <c r="K338" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A339" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B339">
-        <v>1</v>
-      </c>
-      <c r="C339" t="s">
-        <v>8</v>
-      </c>
-      <c r="D339" t="s">
-        <v>5</v>
-      </c>
-      <c r="E339" t="s">
-        <v>36</v>
-      </c>
-      <c r="F339" t="s">
-        <v>20</v>
-      </c>
-      <c r="J339" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K339" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A340" t="s">
-        <v>85</v>
-      </c>
-      <c r="B340">
-        <v>97.5</v>
-      </c>
-      <c r="C340" t="s">
-        <v>8</v>
-      </c>
-      <c r="D340" t="s">
-        <v>6</v>
-      </c>
-      <c r="E340" t="s">
-        <v>22</v>
-      </c>
-      <c r="F340" t="s">
-        <v>23</v>
-      </c>
-      <c r="G340">
-        <v>2</v>
-      </c>
-      <c r="H340">
-        <v>4.5798523780038014</v>
-      </c>
-      <c r="I340">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J340" t="s">
-        <v>86</v>
-      </c>
-      <c r="K340" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A341" t="s">
-        <v>56</v>
-      </c>
-      <c r="B341">
-        <v>3000</v>
-      </c>
-      <c r="C341" t="s">
-        <v>8</v>
-      </c>
-      <c r="D341" t="s">
-        <v>6</v>
-      </c>
-      <c r="E341" t="s">
-        <v>22</v>
-      </c>
-      <c r="F341" t="s">
-        <v>23</v>
-      </c>
-      <c r="G341">
-        <v>2</v>
-      </c>
-      <c r="H341">
-        <v>8.0063675676502459</v>
-      </c>
-      <c r="I341">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J341" t="s">
-        <v>57</v>
-      </c>
-      <c r="K341" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A342" t="s">
-        <v>58</v>
-      </c>
-      <c r="B342">
-        <v>52.5</v>
-      </c>
-      <c r="C342" t="s">
-        <v>8</v>
-      </c>
-      <c r="D342" t="s">
-        <v>6</v>
-      </c>
-      <c r="E342" t="s">
-        <v>22</v>
-      </c>
-      <c r="F342" t="s">
-        <v>23</v>
-      </c>
-      <c r="G342">
-        <v>2</v>
-      </c>
-      <c r="H342">
-        <v>3.9608131695975781</v>
-      </c>
-      <c r="I342">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="J342" t="s">
-        <v>59</v>
-      </c>
-      <c r="K342" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
-        <v>60</v>
-      </c>
-      <c r="B343">
-        <v>4000</v>
-      </c>
-      <c r="C343" t="s">
-        <v>8</v>
-      </c>
-      <c r="D343" t="s">
-        <v>61</v>
-      </c>
-      <c r="E343" t="s">
-        <v>22</v>
-      </c>
-      <c r="F343" t="s">
-        <v>23</v>
-      </c>
-      <c r="G343">
-        <v>2</v>
-      </c>
-      <c r="H343">
-        <v>8.2940496401020276</v>
-      </c>
-      <c r="I343">
-        <v>0.3465735902799727</v>
-      </c>
-      <c r="J343" t="s">
-        <v>60</v>
-      </c>
-      <c r="K343" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A345" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A346" t="s">
-        <v>1</v>
-      </c>
-      <c r="B346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A347" t="s">
-        <v>2</v>
-      </c>
-      <c r="B347" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A348" t="s">
-        <v>3</v>
-      </c>
-      <c r="B348" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>5</v>
-      </c>
-      <c r="B349" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>7</v>
-      </c>
-      <c r="B350" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>103</v>
-      </c>
-      <c r="B351" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A352" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>12</v>
-      </c>
-      <c r="B353" t="s">
-        <v>13</v>
-      </c>
-      <c r="C353" t="s">
-        <v>7</v>
-      </c>
-      <c r="D353" t="s">
-        <v>5</v>
-      </c>
-      <c r="E353" t="s">
-        <v>14</v>
-      </c>
-      <c r="F353" t="s">
-        <v>3</v>
-      </c>
-      <c r="G353" t="s">
-        <v>15</v>
-      </c>
-      <c r="H353" t="s">
-        <v>16</v>
-      </c>
-      <c r="I353" t="s">
-        <v>17</v>
-      </c>
-      <c r="J353" t="s">
-        <v>2</v>
-      </c>
-      <c r="K353" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
-        <v>25</v>
-      </c>
-      <c r="B354">
-        <v>1</v>
-      </c>
-      <c r="C354" t="s">
-        <v>8</v>
-      </c>
-      <c r="D354" t="s">
-        <v>6</v>
-      </c>
-      <c r="E354" t="s">
-        <v>19</v>
-      </c>
-      <c r="F354" t="s">
-        <v>20</v>
-      </c>
-      <c r="J354" t="s">
-        <v>25</v>
-      </c>
-      <c r="K354" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>87</v>
-      </c>
-      <c r="B355">
-        <v>0.81</v>
-      </c>
-      <c r="C355" t="s">
-        <v>27</v>
-      </c>
-      <c r="D355" t="s">
-        <v>6</v>
-      </c>
-      <c r="E355" t="s">
-        <v>22</v>
-      </c>
-      <c r="F355" t="s">
-        <v>23</v>
-      </c>
-      <c r="G355">
-        <v>2</v>
-      </c>
-      <c r="H355">
-        <v>-0.21072103131565251</v>
-      </c>
-      <c r="I355">
-        <v>0.30759281954511669</v>
-      </c>
-      <c r="J355" t="s">
-        <v>88</v>
-      </c>
-      <c r="K355" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
-        <v>89</v>
-      </c>
-      <c r="B356">
-        <v>0.19</v>
-      </c>
-      <c r="C356" t="s">
-        <v>27</v>
-      </c>
-      <c r="D356" t="s">
-        <v>6</v>
-      </c>
-      <c r="E356" t="s">
-        <v>22</v>
-      </c>
-      <c r="F356" t="s">
-        <v>23</v>
-      </c>
-      <c r="G356">
-        <v>2</v>
-      </c>
-      <c r="H356">
-        <v>-1.6607312068216511</v>
-      </c>
-      <c r="I356">
-        <v>0.31028824386255488</v>
-      </c>
-      <c r="J356" t="s">
-        <v>90</v>
-      </c>
-      <c r="K356" t="s">
-        <v>28</v>
-      </c>
+      <c r="B224" s="2"/>
+    </row>
+    <row r="229" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A229" s="1"/>
+    </row>
+    <row r="231" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A231" s="2"/>
+      <c r="J231" s="2"/>
+    </row>
+    <row r="232" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A232" s="2"/>
+    </row>
+    <row r="233" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A233" s="2"/>
+    </row>
+    <row r="234" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A234" s="2"/>
+    </row>
+    <row r="235" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A235" s="2"/>
+    </row>
+    <row r="238" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A238" s="2"/>
+    </row>
+    <row r="240" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+    </row>
+    <row r="242" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B242" s="2"/>
+    </row>
+    <row r="247" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="249" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A249" s="2"/>
+      <c r="J249" s="2"/>
+    </row>
+    <row r="256" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+    </row>
+    <row r="258" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B258" s="2"/>
+    </row>
+    <row r="263" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="265" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A265" s="2"/>
+      <c r="J265" s="2"/>
+    </row>
+    <row r="272" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+    </row>
+    <row r="274" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B274" s="2"/>
+    </row>
+    <row r="279" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="281" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A281" s="2"/>
+      <c r="J281" s="2"/>
+    </row>
+    <row r="285" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+    </row>
+    <row r="287" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B287" s="2"/>
+    </row>
+    <row r="292" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A292" s="1"/>
+    </row>
+    <row r="294" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A294" s="2"/>
+    </row>
+    <row r="303" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+    </row>
+    <row r="310" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="316" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+    </row>
+    <row r="323" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A323" s="1"/>
+    </row>
+    <row r="330" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+    </row>
+    <row r="332" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B332" s="2"/>
+    </row>
+    <row r="337" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A337" s="1"/>
+    </row>
+    <row r="339" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A339" s="2"/>
+      <c r="J339" s="2"/>
+    </row>
+    <row r="345" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+    </row>
+    <row r="352" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A352" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rmnd_lca/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62294317-64BC-40E4-8A53-9003972920A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03A063FC-F9BF-4857-9DAC-DAA9C33A5DE3}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
@@ -197,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
@@ -573,22 +572,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C0019C-B49E-4DC4-A2B0-0D79853335D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S352"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="79.77734375" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -596,10 +595,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -615,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -623,7 +622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -631,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -639,7 +638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -647,7 +646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -655,7 +654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -663,12 +662,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -706,7 +705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -732,7 +731,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -769,7 +768,7 @@
       <c r="Q14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -806,7 +805,7 @@
       <c r="Q15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -837,7 +836,7 @@
       <c r="Q16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -874,7 +873,7 @@
       <c r="Q17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,7 +881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -890,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -898,7 +897,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -906,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -914,7 +913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -922,7 +921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -930,7 +929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -938,12 +937,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -981,7 +980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
@@ -1044,7 +1043,7 @@
       <c r="Q30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1081,7 +1080,7 @@
       <c r="Q31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
@@ -1112,7 +1111,7 @@
       <c r="Q32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1149,7 +1148,7 @@
       <c r="Q33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1213,12 +1212,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1256,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>21</v>
       </c>
@@ -1319,7 +1318,7 @@
       <c r="Q46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1356,7 +1355,7 @@
       <c r="Q47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -1387,7 +1386,7 @@
       <c r="Q48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -1424,7 +1423,7 @@
       <c r="Q49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="51" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -1488,12 +1487,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>51</v>
       </c>
@@ -1557,7 +1556,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>21</v>
       </c>
@@ -1594,7 +1593,7 @@
       <c r="Q62" s="3"/>
       <c r="S62" s="3"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -1631,7 +1630,7 @@
       <c r="Q63" s="4"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>50</v>
       </c>
@@ -1662,7 +1661,7 @@
       <c r="Q64" s="3"/>
       <c r="S64" s="3"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -1699,7 +1698,7 @@
       <c r="Q65" s="3"/>
       <c r="S65" s="3"/>
     </row>
-    <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -1715,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -1763,12 +1762,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>51</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>21</v>
       </c>
@@ -1869,7 +1868,7 @@
       <c r="Q78" s="3"/>
       <c r="S78" s="3"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -1906,7 +1905,7 @@
       <c r="Q79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>50</v>
       </c>
@@ -1937,7 +1936,7 @@
       <c r="Q80" s="3"/>
       <c r="S80" s="3"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -1974,7 +1973,7 @@
       <c r="Q81" s="3"/>
       <c r="S81" s="3"/>
     </row>
-    <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1981,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2014,7 +2013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2022,7 +2021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -2038,12 +2037,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -2081,7 +2080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>51</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>21</v>
       </c>
@@ -2144,7 +2143,7 @@
       <c r="Q94" s="3"/>
       <c r="S94" s="3"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -2181,7 +2180,7 @@
       <c r="Q95" s="4"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>50</v>
       </c>
@@ -2212,7 +2211,7 @@
       <c r="Q96" s="3"/>
       <c r="S96" s="3"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>25</v>
       </c>
@@ -2249,7 +2248,7 @@
       <c r="Q97" s="3"/>
       <c r="S97" s="3"/>
     </row>
-    <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -2265,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2289,7 +2288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>38</v>
       </c>
@@ -2313,12 +2312,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -2356,7 +2355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>51</v>
       </c>
@@ -2382,7 +2381,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>21</v>
       </c>
@@ -2419,7 +2418,7 @@
       <c r="Q110" s="3"/>
       <c r="S110" s="3"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -2456,7 +2455,7 @@
       <c r="Q111" s="4"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>50</v>
       </c>
@@ -2487,7 +2486,7 @@
       <c r="Q112" s="3"/>
       <c r="S112" s="3"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -2524,7 +2523,7 @@
       <c r="Q113" s="3"/>
       <c r="S113" s="3"/>
     </row>
-    <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -2572,7 +2571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>38</v>
       </c>
@@ -2588,12 +2587,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>51</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>21</v>
       </c>
@@ -2694,7 +2693,7 @@
       <c r="Q126" s="3"/>
       <c r="S126" s="3"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -2731,7 +2730,7 @@
       <c r="Q127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>50</v>
       </c>
@@ -2762,7 +2761,7 @@
       <c r="Q128" s="3"/>
       <c r="S128" s="3"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -2799,7 +2798,7 @@
       <c r="Q129" s="3"/>
       <c r="S129" s="3"/>
     </row>
-    <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -2831,7 +2830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>38</v>
       </c>
@@ -2863,12 +2862,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>51</v>
       </c>
@@ -2932,7 +2931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>21</v>
       </c>
@@ -2969,7 +2968,7 @@
       <c r="Q142" s="3"/>
       <c r="S142" s="3"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -3006,7 +3005,7 @@
       <c r="Q143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>50</v>
       </c>
@@ -3037,7 +3036,7 @@
       <c r="Q144" s="3"/>
       <c r="S144" s="3"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>25</v>
       </c>
@@ -3074,7 +3073,7 @@
       <c r="Q145" s="3"/>
       <c r="S145" s="3"/>
     </row>
-    <row r="147" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>3</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -3138,12 +3137,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>51</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>21</v>
       </c>
@@ -3244,7 +3243,7 @@
       <c r="Q158" s="3"/>
       <c r="S158" s="3"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -3281,7 +3280,7 @@
       <c r="Q159" s="4"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>50</v>
       </c>
@@ -3312,7 +3311,7 @@
       <c r="Q160" s="3"/>
       <c r="S160" s="3"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>25</v>
       </c>
@@ -3349,7 +3348,7 @@
       <c r="Q161" s="3"/>
       <c r="S161" s="3"/>
     </row>
-    <row r="163" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -3365,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -3373,7 +3372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>3</v>
       </c>
@@ -3381,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -3405,7 +3404,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>38</v>
       </c>
@@ -3413,12 +3412,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>51</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>21</v>
       </c>
@@ -3519,7 +3518,7 @@
       <c r="Q174" s="3"/>
       <c r="S174" s="3"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>24</v>
       </c>
@@ -3556,7 +3555,7 @@
       <c r="Q175" s="4"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>50</v>
       </c>
@@ -3587,7 +3586,7 @@
       <c r="Q176" s="3"/>
       <c r="S176" s="3"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>25</v>
       </c>
@@ -3624,7 +3623,7 @@
       <c r="Q177" s="3"/>
       <c r="S177" s="3"/>
     </row>
-    <row r="179" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
@@ -3632,7 +3631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -3640,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>3</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -3680,7 +3679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>38</v>
       </c>
@@ -3688,12 +3687,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>51</v>
       </c>
@@ -3757,7 +3756,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>21</v>
       </c>
@@ -3794,7 +3793,7 @@
       <c r="Q190" s="3"/>
       <c r="S190" s="3"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>24</v>
       </c>
@@ -3831,7 +3830,7 @@
       <c r="Q191" s="4"/>
       <c r="S191" s="4"/>
     </row>
-    <row r="192" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>50</v>
       </c>
@@ -3862,7 +3861,7 @@
       <c r="Q192" s="3"/>
       <c r="S192" s="3"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>25</v>
       </c>
@@ -3896,151 +3895,151 @@
       <c r="Q193" s="3"/>
       <c r="S193" s="3"/>
     </row>
-    <row r="195" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
     </row>
-    <row r="197" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B197" s="2"/>
     </row>
-    <row r="202" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
     </row>
-    <row r="204" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="207" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
     </row>
-    <row r="209" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B209" s="2"/>
     </row>
-    <row r="214" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
     </row>
-    <row r="217" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="M217" s="2"/>
     </row>
-    <row r="222" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
     </row>
-    <row r="224" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B224" s="2"/>
     </row>
-    <row r="229" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
     </row>
-    <row r="231" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
     </row>
-    <row r="233" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
     </row>
-    <row r="234" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
     </row>
-    <row r="235" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
     </row>
-    <row r="238" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
     </row>
-    <row r="240" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
     </row>
-    <row r="242" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B242" s="2"/>
     </row>
-    <row r="247" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
     </row>
-    <row r="249" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="J249" s="2"/>
     </row>
-    <row r="256" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
     </row>
-    <row r="258" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B258" s="2"/>
     </row>
-    <row r="263" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
     </row>
-    <row r="265" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="J265" s="2"/>
     </row>
-    <row r="272" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
     </row>
-    <row r="274" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B274" s="2"/>
     </row>
-    <row r="279" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
     </row>
-    <row r="281" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="J281" s="2"/>
     </row>
-    <row r="285" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
     </row>
-    <row r="287" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B287" s="2"/>
     </row>
-    <row r="292" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
     </row>
-    <row r="294" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
     </row>
-    <row r="303" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
     </row>
-    <row r="310" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
     </row>
-    <row r="316" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
     </row>
-    <row r="323" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
     </row>
-    <row r="330" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
     </row>
-    <row r="332" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B332" s="2"/>
     </row>
-    <row r="337" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
     </row>
-    <row r="339" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="2"/>
       <c r="J339" s="2"/>
     </row>
-    <row r="345" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
     </row>
-    <row r="352" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
     </row>
   </sheetData>
